--- a/src/BB_Product_data_all.xlsx
+++ b/src/BB_Product_data_all.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D15"/>
+  <dimension ref="A1:C15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,303 +436,228 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>URL</t>
+          <t>Name</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Product_name</t>
+          <t>Star_rating</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>Total_star_rating</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>Total_product_reviews</t>
+          <t>Total_reviews</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>https://www.bestbuy.com/site/apple-iphone-14-128gb-unlocked-midnight/6507555.p?skuId=6507555</t>
+          <t>Apple - iPhone 14 128GB (Unlocked) - Midnight</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Apple - iPhone 14 128GB (Unlocked) - Midnight</t>
+          <t>4.9</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>4.9</v>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>(201 Reviews)</t>
-        </is>
+        <v>209</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>https://www.bestbuy.com/site/samsung-galaxy-s22-ultra-128gb-phantom-black-verizon/6494471.p?skuId=6494471</t>
+          <t>Samsung - Galaxy S22 Ultra 128GB - Phantom Black (Verizon)</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Samsung - Galaxy S22 Ultra 128GB - Phantom Black (Verizon)</t>
+          <t>4.6</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>4.6</v>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>(396 Reviews)</t>
-        </is>
+        <v>396</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>https://www.bestbuy.com/site/hp-deskjet-2755e-wireless-inkjet-printer-with-3-months-of-instant-ink-included-with-hp-white/6454282.p?skuId=6454282</t>
+          <t>HP - DeskJet 2755e Wireless Inkjet Printer with 3 months of Instant Ink Included with HP+ - White</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>HP - DeskJet 2755e Wireless Inkjet Printer with 3 months of Instant Ink Included with HP+ - White</t>
+          <t>4.1</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>4.1</v>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>(3,481 Reviews)</t>
-        </is>
+        <v>3489</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>https://www.bestbuy.com/site/jbl-flip-5-portable-bluetooth-speaker-black/6356535.p?skuId=6356535</t>
+          <t>JBL - Flip 5 Portable Bluetooth Speaker - Black</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>JBL - Flip 5 Portable Bluetooth Speaker - Black</t>
+          <t>4.8</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>4.8</v>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>(5,922 Reviews)</t>
-        </is>
+        <v>5932</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>https://www.bestbuy.com/site/microsoft-365-family-up-to-6-people-12-month-subscription-activation-required-windows-mac-os-apple-ios-android-digital/6258038.p?skuId=6258038</t>
+          <t>Microsoft - 365 Family (Up to 6 People) (12-Month Subscription) - Activation Required - Windows, Mac OS, Apple iOS, Android [Digital]</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Microsoft - 365 Family (Up to 6 People) (12-Month Subscription) - Activation Required - Windows, Mac OS, Apple iOS, Android [Digital]</t>
+          <t>4.5</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>(10,348 Reviews)</t>
-        </is>
+        <v>10353</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>https://www.bestbuy.com/site/turbotax-deluxe-2023-federal-e-file-state-mac-os-windows-digital/6560825.p?skuId=6560825</t>
+          <t>TurboTax - Deluxe 2023 Federal + E-file &amp; State - Mac OS, Windows [Digital]</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>TurboTax - Deluxe 2023 Federal + E-file &amp; State - Mac OS, Windows [Digital]</t>
+          <t>4.7</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>4.7</v>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>(270 Reviews)</t>
-        </is>
+        <v>286</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>https://www.bestbuy.com/site/hamilton-beach-classic-4-slice-toaster-with-sure-toast-technology-stainless-steel/6518125.p?skuId=6518125</t>
+          <t>Hamilton Beach - Classic 4 Slice Toaster with Sure-Toast Technology - Stainless Steel</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Hamilton Beach - Classic 4 Slice Toaster with Sure-Toast Technology - Stainless Steel</t>
+          <t>4.5</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>(28 Reviews)</t>
-        </is>
+        <v>28</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>https://www.bestbuy.com/site/razor-mx350-dirt-rocket-ebike-w-7-miles-max-operating-range-14-mph-max-speed-small-blue/3698469.p?skuId=3698469</t>
+          <t>Razor - MX350 Dirt Rocket eBike w/7 miles Max Operating Range &amp; 14 mph Max Speed - Small - Blue</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Razor - MX350 Dirt Rocket eBike w/7 miles Max Operating Range &amp; 14 mph Max Speed - Small - Blue</t>
+          <t>4.4</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>4.4</v>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>(198 Reviews)</t>
-        </is>
+        <v>199</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>https://www.bestbuy.com/site/lg-65-class-c3-series-oled-4k-uhd-smart-webos-tv/6535929.p?skuId=6535929</t>
+          <t>LG - 65" Class C3 Series OLED 4K UHD Smart webOS TV</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>LG - 65" Class C3 Series OLED 4K UHD Smart webOS TV</t>
+          <t>4.8</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>4.8</v>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>(1,453 Reviews)</t>
-        </is>
+        <v>1470</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>https://www.bestbuy.com/site/ge-1-4-cu-ft-mid-size-microwave-black/3180025.p?skuId=3180025</t>
+          <t>GE - 1.4 Cu. Ft. Mid-Size Microwave - Black</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>GE - 1.4 Cu. Ft. Mid-Size Microwave - Black</t>
+          <t>4.0</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>4</v>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>(859 Reviews)</t>
-        </is>
+        <v>860</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>https://www.bestbuy.com/site/mcafee-total-protection-5-device-antivirus-internet-security-software-1-year-subscription-android-apple-ios-chrome-mac-os-windows-digital/6517326.p?skuId=6517326</t>
+          <t>McAfee - Total Protection (5 Device) Antivirus &amp; Internet Security Software (1-Year Subscription) - Android, Apple iOS, Chrome, Mac OS, Windows [Digital]</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>McAfee - Total Protection (5 Device) Antivirus &amp; Internet Security Software (1-Year Subscription) - Android, Apple iOS, Chrome, Mac OS, Windows [Digital]</t>
+          <t>4.6</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>4.6</v>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>(238 Reviews)</t>
-        </is>
+        <v>244</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>https://www.bestbuy.com/site/norton-360-deluxe-5-device-antivirus-internet-security-software-vpn-dark-web-monitoring-1-year-subscription-android-mac-os-windows-apple-ios-digital/6346690.p?skuId=6346690</t>
+          <t>Norton - 360 Deluxe (5 Device) Antivirus Internet Security Software + VPN + Dark Web Monitoring (1 Year Subscription) - Android, Mac OS, Windows, Apple iOS [Digital]</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Norton - 360 Deluxe (5 Device) Antivirus Internet Security Software + VPN + Dark Web Monitoring (1 Year Subscription) - Android, Mac OS, Windows, Apple iOS [Digital]</t>
+          <t>4.4</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>4.4</v>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>(358 Reviews)</t>
-        </is>
+        <v>358</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>https://www.bestbuy.com/site/apple-iphone-13-5g-128gb-unlocked-midnight/6417788.p?skuId=6417788</t>
+          <t>Apple - iPhone 13 5G 128GB (Unlocked) - Midnight</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Apple - iPhone 13 5G 128GB (Unlocked) - Midnight</t>
+          <t>4.8</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>4.8</v>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>(979 Reviews)</t>
-        </is>
+        <v>987</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>https://www.bestbuy.com/site/samsung-galaxy-s23-ultra-256gb-unlocked-phantom-black/6529723.p?skuId=6529723</t>
+          <t>Samsung - Galaxy S23 Ultra 256GB (Unlocked) - Phantom Black</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Samsung - Galaxy S23 Ultra 256GB (Unlocked) - Phantom Black</t>
+          <t>4.8</t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>4.8</v>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>(2,053 Reviews)</t>
-        </is>
+        <v>2066</v>
       </c>
     </row>
   </sheetData>
